--- a/AgePerf.xlsx
+++ b/AgePerf.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Day 1 Training Session\Day 2 Training Philado\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1183A2F4-63EB-4AD7-938A-5C0D2628CB89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Terms" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="161">
   <si>
     <t>Perf</t>
   </si>
@@ -477,17 +486,42 @@
   </si>
   <si>
     <t>Late Adult</t>
+  </si>
+  <si>
+    <t>This dataset on 'SleepData.xlsx' is hypothetical and was generated</t>
+  </si>
+  <si>
+    <t>by Paolo G. Hilado (Github: Dcroix) for training purposes on Basic Statistics . Considering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that most of the values generated by this dataset use randomization, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in such a rare case that it resembles any existing dataset, it is purely </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coincidental. It is distributed under </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creative Commons Attribution-NoDerivatives 4.0 International Public License.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,7 +532,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -510,25 +544,403 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="14181B"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="F0F1F2"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -536,1657 +948,1708 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.22</v>
       </c>
       <c r="C2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2.35</v>
       </c>
       <c r="C3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
-        <v>4.48</v>
+      <c r="B4">
+        <v>4.4800000000000004</v>
       </c>
       <c r="C4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.74</v>
       </c>
       <c r="C5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>4.55</v>
       </c>
       <c r="C6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>4.05</v>
       </c>
       <c r="C7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2.33</v>
       </c>
       <c r="C8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>3.96</v>
       </c>
       <c r="C9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>4.46</v>
       </c>
       <c r="C10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>4.16</v>
       </c>
       <c r="C11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.22</v>
       </c>
       <c r="C12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="n">
-        <v>4.23</v>
+      <c r="B13">
+        <v>4.2300000000000004</v>
       </c>
       <c r="C13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>3.52</v>
       </c>
       <c r="C14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2.36</v>
       </c>
       <c r="C15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1.98</v>
       </c>
       <c r="C16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>4.42</v>
       </c>
       <c r="C17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1.47</v>
       </c>
       <c r="C18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>4.43</v>
       </c>
       <c r="C19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1.36</v>
       </c>
       <c r="C20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="n">
-        <v>4.77</v>
+      <c r="B21">
+        <v>4.7699999999999996</v>
       </c>
       <c r="C21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>4.38</v>
       </c>
       <c r="C22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>3.72</v>
       </c>
       <c r="C23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>4.5</v>
       </c>
       <c r="C24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="n">
-        <v>2.26</v>
+      <c r="B25">
+        <v>2.2599999999999998</v>
       </c>
       <c r="C25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.3</v>
       </c>
       <c r="C26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>3.21</v>
       </c>
       <c r="C27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>2.54</v>
       </c>
       <c r="C28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>3.2</v>
       </c>
       <c r="C29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.5</v>
       </c>
       <c r="C30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>4.75</v>
       </c>
       <c r="C31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.95</v>
       </c>
       <c r="C32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>3.23</v>
       </c>
       <c r="C33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2.29</v>
       </c>
       <c r="C34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1.62</v>
       </c>
       <c r="C35" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2.5</v>
       </c>
       <c r="C36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="n">
-        <v>4.19</v>
+      <c r="B37">
+        <v>4.1900000000000004</v>
       </c>
       <c r="C37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>4.09</v>
       </c>
       <c r="C38" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1.41</v>
       </c>
       <c r="C39" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2.33</v>
       </c>
       <c r="C40" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1.72</v>
       </c>
       <c r="C41" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="n">
-        <v>4.52</v>
+      <c r="B42">
+        <v>4.5199999999999996</v>
       </c>
       <c r="C42" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2.85</v>
       </c>
       <c r="C43" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="n">
-        <v>2.49</v>
+      <c r="B44">
+        <v>2.4900000000000002</v>
       </c>
       <c r="C44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>4.13</v>
       </c>
       <c r="C45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>4.59</v>
       </c>
       <c r="C46" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>4.54</v>
       </c>
       <c r="C47" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>4.22</v>
       </c>
       <c r="C48" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2.35</v>
       </c>
       <c r="C49" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>3.19</v>
       </c>
       <c r="C50" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>3.59</v>
       </c>
       <c r="C51" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>4.37</v>
       </c>
       <c r="C52" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="n">
-        <v>4.48</v>
+      <c r="B53">
+        <v>4.4800000000000004</v>
       </c>
       <c r="C53" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="n">
-        <v>4.56</v>
+      <c r="B54">
+        <v>4.5599999999999996</v>
       </c>
       <c r="C54" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="n">
-        <v>4.6</v>
+      <c r="B55">
+        <v>4.5999999999999996</v>
       </c>
       <c r="C55" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="n">
-        <v>4.4</v>
+      <c r="B56">
+        <v>4.4000000000000004</v>
       </c>
       <c r="C56" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>4.46</v>
       </c>
       <c r="C57" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="n">
-        <v>4.6</v>
+      <c r="B58">
+        <v>4.5999999999999996</v>
       </c>
       <c r="C58" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>4.17</v>
       </c>
       <c r="C59" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="n">
-        <v>4.44</v>
+      <c r="B60">
+        <v>4.4400000000000004</v>
       </c>
       <c r="C60" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="n">
-        <v>4.73</v>
+      <c r="B61">
+        <v>4.7300000000000004</v>
       </c>
       <c r="C61" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>4.59</v>
       </c>
       <c r="C62" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>4.38</v>
       </c>
       <c r="C63" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="n">
-        <v>4.31</v>
+      <c r="B64">
+        <v>4.3099999999999996</v>
       </c>
       <c r="C64" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>4.43</v>
       </c>
       <c r="C65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>4.3</v>
       </c>
       <c r="C66" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>4.47</v>
       </c>
       <c r="C67" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>4.01</v>
       </c>
       <c r="C68" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="n">
-        <v>4.0</v>
+      <c r="B69">
+        <v>4</v>
       </c>
       <c r="C69" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>4.54</v>
       </c>
       <c r="C70" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="n">
-        <v>4.39</v>
+      <c r="B71">
+        <v>4.3899999999999997</v>
       </c>
       <c r="C71" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>4.7</v>
       </c>
       <c r="C72" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="n">
-        <v>4.02</v>
+      <c r="B73">
+        <v>4.0199999999999996</v>
       </c>
       <c r="C73" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>4.43</v>
       </c>
       <c r="C74" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="n">
-        <v>4.31</v>
+      <c r="B75">
+        <v>4.3099999999999996</v>
       </c>
       <c r="C75" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>4.34</v>
       </c>
       <c r="C76" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>4.68</v>
       </c>
       <c r="C77" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>4.76</v>
       </c>
       <c r="C78" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>4.63</v>
       </c>
       <c r="C79" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>3.98</v>
       </c>
       <c r="C80" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>3.95</v>
       </c>
       <c r="C81" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>4.76</v>
       </c>
       <c r="C82" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>3.99</v>
       </c>
       <c r="C83" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>4.29</v>
       </c>
       <c r="C84" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>4.62</v>
       </c>
       <c r="C85" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>4.74</v>
       </c>
       <c r="C86" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="n">
-        <v>4.06</v>
+      <c r="B87">
+        <v>4.0599999999999996</v>
       </c>
       <c r="C87" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>4.63</v>
       </c>
       <c r="C88" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>3.96</v>
       </c>
       <c r="C89" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>4.32</v>
       </c>
       <c r="C90" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>4.07</v>
       </c>
       <c r="C91" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>4.47</v>
       </c>
       <c r="C92" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>4.3</v>
       </c>
       <c r="C93" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="n">
-        <v>4.36</v>
+      <c r="B94">
+        <v>4.3600000000000003</v>
       </c>
       <c r="C94" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>95</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>3.96</v>
       </c>
       <c r="C95" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>96</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>4.28</v>
       </c>
       <c r="C96" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>97</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>3.89</v>
       </c>
       <c r="C97" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>98</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>4.59</v>
       </c>
       <c r="C98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>4.24</v>
       </c>
       <c r="C99" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>3.93</v>
       </c>
       <c r="C100" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>4.46</v>
       </c>
       <c r="C101" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="n">
-        <v>2.07647693946259</v>
+      <c r="B102">
+        <v>2.0764769394625899</v>
       </c>
       <c r="C102" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="n">
-        <v>2.00180549014593</v>
+      <c r="B103">
+        <v>2.0018054901459301</v>
       </c>
       <c r="C103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>3.35989230883541</v>
       </c>
       <c r="C104" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>1.47562054761685</v>
       </c>
       <c r="C105" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="n">
-        <v>2.60814232534263</v>
+      <c r="B106">
+        <v>2.6081423253426301</v>
       </c>
       <c r="C106" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="n">
-        <v>1.65518184024608</v>
+      <c r="B107">
+        <v>1.6551818402460801</v>
       </c>
       <c r="C107" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="n">
-        <v>2.00786990958266</v>
+      <c r="B108">
+        <v>2.0078699095826602</v>
       </c>
       <c r="C108" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>109</v>
       </c>
-      <c r="B109" t="n">
-        <v>3.30281025827164</v>
+      <c r="B109">
+        <v>3.3028102582716401</v>
       </c>
       <c r="C109" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>110</v>
       </c>
-      <c r="B110" t="n">
-        <v>2.34632309241453</v>
+      <c r="B110">
+        <v>2.3463230924145302</v>
       </c>
       <c r="C110" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>111</v>
       </c>
-      <c r="B111" t="n">
-        <v>2.38151574728312</v>
+      <c r="B111">
+        <v>2.3815157472831201</v>
       </c>
       <c r="C111" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="B112" t="n">
-        <v>2.67507192720193</v>
+      <c r="B112">
+        <v>2.6750719272019299</v>
       </c>
       <c r="C112" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="n">
-        <v>3.25645158668049</v>
+      <c r="B113">
+        <v>3.2564515866804902</v>
       </c>
       <c r="C113" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>114</v>
       </c>
-      <c r="B114" t="n">
-        <v>2.43219308164902</v>
+      <c r="B114">
+        <v>2.4321930816490198</v>
       </c>
       <c r="C114" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>115</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>1.78144212407526</v>
       </c>
       <c r="C115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>116</v>
       </c>
-      <c r="B116" t="n">
-        <v>3.08794860763242</v>
+      <c r="B116">
+        <v>3.0879486076324199</v>
       </c>
       <c r="C116" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>117</v>
       </c>
-      <c r="B117" t="n">
-        <v>3.21809526641853</v>
+      <c r="B117">
+        <v>3.2180952664185298</v>
       </c>
       <c r="C117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>118</v>
       </c>
-      <c r="B118" t="n">
-        <v>2.35324079606216</v>
+      <c r="B118">
+        <v>2.3532407960621602</v>
       </c>
       <c r="C118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>119</v>
       </c>
-      <c r="B119" t="n">
-        <v>1.65646527167642</v>
+      <c r="B119">
+        <v>1.6564652716764201</v>
       </c>
       <c r="C119" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>120</v>
       </c>
-      <c r="B120" t="n">
-        <v>2.45748955286574</v>
+      <c r="B120">
+        <v>2.4574895528657401</v>
       </c>
       <c r="C120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>121</v>
       </c>
-      <c r="B121" t="n">
-        <v>3.07631039390573</v>
+      <c r="B121">
+        <v>3.0763103939057301</v>
       </c>
       <c r="C121" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>122</v>
       </c>
-      <c r="B122" t="n">
-        <v>1.47304523912258</v>
+      <c r="B122">
+        <v>1.4730452391225799</v>
       </c>
       <c r="C122" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>123</v>
       </c>
-      <c r="B123" t="n">
-        <v>3.17911755546927</v>
+      <c r="B123">
+        <v>3.1791175554692699</v>
       </c>
       <c r="C123" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>124</v>
       </c>
-      <c r="B124" t="n">
-        <v>1.52532628523186</v>
+      <c r="B124">
+        <v>1.5253262852318601</v>
       </c>
       <c r="C124" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>125</v>
       </c>
-      <c r="B125" t="n">
-        <v>3.00902503757039</v>
+      <c r="B125">
+        <v>3.0090250375703902</v>
       </c>
       <c r="C125" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>126</v>
       </c>
-      <c r="B126" t="n">
-        <v>3.00740325537743</v>
+      <c r="B126">
+        <v>3.0074032553774299</v>
       </c>
       <c r="C126" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>127</v>
       </c>
-      <c r="B127" t="n">
-        <v>1.9598851310485</v>
+      <c r="B127">
+        <v>1.9598851310484999</v>
       </c>
       <c r="C127" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>128</v>
       </c>
-      <c r="B128" t="n">
-        <v>2.2718327502301</v>
+      <c r="B128">
+        <v>2.2718327502301001</v>
       </c>
       <c r="C128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="n">
-        <v>3.07196224323008</v>
+      <c r="B129">
+        <v>3.0719622432300802</v>
       </c>
       <c r="C129" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>130</v>
       </c>
-      <c r="B130" t="n">
-        <v>2.84654699133243</v>
+      <c r="B130">
+        <v>2.8465469913324299</v>
       </c>
       <c r="C130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>131</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>1.98144390808186</v>
       </c>
       <c r="C131" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>132</v>
       </c>
-      <c r="B132" t="n">
-        <v>2.9779713204666</v>
+      <c r="B132">
+        <v>2.9779713204666001</v>
       </c>
       <c r="C132" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>133</v>
       </c>
-      <c r="B133" t="n">
-        <v>2.34716084246058</v>
+      <c r="B133">
+        <v>2.3471608424605801</v>
       </c>
       <c r="C133" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>134</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>1.60077668068931</v>
       </c>
       <c r="C134" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>135</v>
       </c>
-      <c r="B135" t="n">
-        <v>3.35641030681087</v>
+      <c r="B135">
+        <v>3.3564103068108699</v>
       </c>
       <c r="C135" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>136</v>
       </c>
-      <c r="B136" t="n">
-        <v>2.18394750855863</v>
+      <c r="B136">
+        <v>2.1839475085586302</v>
       </c>
       <c r="C136" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>137</v>
       </c>
-      <c r="B137" t="n">
-        <v>1.85399578073295</v>
+      <c r="B137">
+        <v>1.8539957807329499</v>
       </c>
       <c r="C137" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>138</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>3.33106477836147</v>
       </c>
       <c r="C138" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>139</v>
       </c>
-      <c r="B139" t="n">
-        <v>2.87561557727633</v>
+      <c r="B139">
+        <v>2.8756155772763301</v>
       </c>
       <c r="C139" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>140</v>
       </c>
-      <c r="B140" t="n">
-        <v>1.77739382906817</v>
+      <c r="B140">
+        <v>1.7773938290681699</v>
       </c>
       <c r="C140" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>141</v>
       </c>
-      <c r="B141" t="n">
-        <v>1.58424040583195</v>
+      <c r="B141">
+        <v>1.5842404058319499</v>
       </c>
       <c r="C141" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>142</v>
       </c>
-      <c r="B142" t="n">
-        <v>2.48083487515338</v>
+      <c r="B142">
+        <v>2.4808348751533802</v>
       </c>
       <c r="C142" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>143</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>2.10901368535822</v>
       </c>
       <c r="C143" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>144</v>
       </c>
-      <c r="B144" t="n">
-        <v>3.07183086145669</v>
+      <c r="B144">
+        <v>3.0718308614566898</v>
       </c>
       <c r="C144" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
-      <c r="B145" t="n">
-        <v>3.07274272161303</v>
+      <c r="B145">
+        <v>3.0727427216130301</v>
       </c>
       <c r="C145" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>146</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>2.07221572580747</v>
       </c>
       <c r="C146" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>147</v>
       </c>
-      <c r="B147" t="n">
-        <v>1.54942271429813</v>
+      <c r="B147">
+        <v>1.5494227142981301</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>148</v>
       </c>
-      <c r="B148" t="n">
-        <v>2.60452325922903</v>
+      <c r="B148">
+        <v>2.6045232592290302</v>
       </c>
       <c r="C148" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>149</v>
       </c>
-      <c r="B149" t="n">
-        <v>3.11450131680351</v>
+      <c r="B149">
+        <v>3.1145013168035098</v>
       </c>
       <c r="C149" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>150</v>
       </c>
-      <c r="B150" t="n">
-        <v>2.33530624018516</v>
+      <c r="B150">
+        <v>2.3353062401851599</v>
       </c>
       <c r="C150" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>151</v>
       </c>
-      <c r="B151" t="n">
-        <v>3.05759689235128</v>
+      <c r="B151">
+        <v>3.0575968923512802</v>
       </c>
       <c r="C151" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242B517F-00A8-4F3C-9654-D8170ABB2A61}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="71.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{28A3D8CE-EA37-4682-988F-C94D97A15D12}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>